--- a/Stories/Plague_Story.xlsx
+++ b/Stories/Plague_Story.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\DECO3801-Synergistiscs\Stories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/533b0e9be467b961/Documents/GitHub/DECO3801-Synergistiscs/Stories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19213D71-A052-46B6-8476-82AB03BC4D7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{19213D71-A052-46B6-8476-82AB03BC4D7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DC312573-1BE5-46F8-89F4-5446232D3080}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9231656-942C-4CD2-ACA7-732F233B17E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C9231656-942C-4CD2-ACA7-732F233B17E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,10 +194,10 @@
     <t>Neighbouring countries have reported a new disease that is making its townfolk sick.</t>
   </si>
   <si>
-    <t>TOWN_HALL</t>
-  </si>
-  <si>
     <t>AGRICULTURAL</t>
+  </si>
+  <si>
+    <t>TAVERN</t>
   </si>
 </sst>
 </file>
@@ -727,21 +727,21 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -754,11 +754,11 @@
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
@@ -781,9 +781,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>52</v>
@@ -794,7 +794,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="b">
         <v>1</v>
       </c>
@@ -807,7 +807,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -830,7 +830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
@@ -843,7 +843,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
@@ -856,7 +856,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -879,7 +879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>26</v>
       </c>
@@ -892,7 +892,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -915,7 +915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
@@ -928,7 +928,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
@@ -951,7 +951,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>42</v>
       </c>
@@ -964,7 +964,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
